--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H2">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I2">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J2">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N2">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O2">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P2">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q2">
-        <v>236.73680146006</v>
+        <v>330.541257903436</v>
       </c>
       <c r="R2">
-        <v>946.9472058402401</v>
+        <v>1322.165031613744</v>
       </c>
       <c r="S2">
-        <v>0.02725993974667869</v>
+        <v>0.0695200023815747</v>
       </c>
       <c r="T2">
-        <v>0.01809547515636572</v>
+        <v>0.04864401437281254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H3">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I3">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J3">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P3">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q3">
-        <v>1.735634553986667</v>
+        <v>4.952360351726666</v>
       </c>
       <c r="R3">
-        <v>10.41380732392</v>
+        <v>29.71416211036</v>
       </c>
       <c r="S3">
-        <v>0.0001998560978780156</v>
+        <v>0.001041588894621542</v>
       </c>
       <c r="T3">
-        <v>0.000199000314432488</v>
+        <v>0.001093219147543373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H4">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I4">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J4">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N4">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O4">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P4">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q4">
-        <v>0.8578878376750002</v>
+        <v>3.8054562491385</v>
       </c>
       <c r="R4">
-        <v>5.147327026050001</v>
+        <v>22.832737494831</v>
       </c>
       <c r="S4">
-        <v>9.878468670775902E-05</v>
+        <v>0.0008003700632747449</v>
       </c>
       <c r="T4">
-        <v>9.836169085997797E-05</v>
+        <v>0.0008400434017783694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.719429</v>
+        <v>44.8529195</v>
       </c>
       <c r="H5">
-        <v>31.438858</v>
+        <v>89.705839</v>
       </c>
       <c r="I5">
-        <v>0.03655557182726898</v>
+        <v>0.09328277884630309</v>
       </c>
       <c r="J5">
-        <v>0.02735130335739091</v>
+        <v>0.07358468181289031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N5">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O5">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P5">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q5">
-        <v>78.13366287574469</v>
+        <v>104.225177571345</v>
       </c>
       <c r="R5">
-        <v>468.8019772544681</v>
+        <v>625.35106542807</v>
       </c>
       <c r="S5">
-        <v>0.008996991296004503</v>
+        <v>0.02192081750683212</v>
       </c>
       <c r="T5">
-        <v>0.008958466195732729</v>
+        <v>0.02300740489075604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I6">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J6">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N6">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O6">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P6">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q6">
-        <v>3860.279692800601</v>
+        <v>1888.96852629192</v>
       </c>
       <c r="R6">
-        <v>23161.6781568036</v>
+        <v>11333.81115775152</v>
       </c>
       <c r="S6">
-        <v>0.4445062667995254</v>
+        <v>0.3972910894073561</v>
       </c>
       <c r="T6">
-        <v>0.4426028917782014</v>
+        <v>0.4169843095785873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I7">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J7">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P7">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q7">
         <v>28.3016192732</v>
@@ -889,10 +889,10 @@
         <v>254.7145734588</v>
       </c>
       <c r="S7">
-        <v>0.003258895242998511</v>
+        <v>0.005952444943650805</v>
       </c>
       <c r="T7">
-        <v>0.004867410989293972</v>
+        <v>0.009371250241864196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I8">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J8">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N8">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O8">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P8">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q8">
-        <v>13.98889812675</v>
+        <v>21.74732173647</v>
       </c>
       <c r="R8">
-        <v>125.90008314075</v>
+        <v>195.72589562823</v>
       </c>
       <c r="S8">
-        <v>0.001610803718330912</v>
+        <v>0.004573933881966237</v>
       </c>
       <c r="T8">
-        <v>0.002405859389633365</v>
+        <v>0.007200987057153279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>768.9728700000001</v>
       </c>
       <c r="I9">
-        <v>0.596082783552044</v>
+        <v>0.5330899821806619</v>
       </c>
       <c r="J9">
-        <v>0.6689940913557841</v>
+        <v>0.630779719497357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N9">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O9">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P9">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q9">
-        <v>1274.06381375078</v>
+        <v>595.6233159159001</v>
       </c>
       <c r="R9">
-        <v>11466.57432375702</v>
+        <v>5360.609843243101</v>
       </c>
       <c r="S9">
-        <v>0.1467068177911891</v>
+        <v>0.1252725139476888</v>
       </c>
       <c r="T9">
-        <v>0.2191179291986553</v>
+        <v>0.1972231726197523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H10">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I10">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J10">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N10">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O10">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P10">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q10">
-        <v>4.299795471166666</v>
+        <v>0.6057858209786667</v>
       </c>
       <c r="R10">
-        <v>25.798772827</v>
+        <v>3.634714925872001</v>
       </c>
       <c r="S10">
-        <v>0.0004951159462497857</v>
+        <v>0.0001274099093840331</v>
       </c>
       <c r="T10">
-        <v>0.0004929958606736334</v>
+        <v>0.0001337254585226741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H11">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I11">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J11">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P11">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q11">
-        <v>0.03152392677777777</v>
+        <v>0.009076233631111111</v>
       </c>
       <c r="R11">
-        <v>0.283715341</v>
+        <v>0.08168610268</v>
       </c>
       <c r="S11">
-        <v>3.62993982870852E-06</v>
+        <v>1.908928971992073E-06</v>
       </c>
       <c r="T11">
-        <v>5.421594649503069E-06</v>
+        <v>3.005328274319228E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H12">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I12">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J12">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N12">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O12">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P12">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q12">
-        <v>0.01558161729166667</v>
+        <v>0.006974292567000001</v>
       </c>
       <c r="R12">
-        <v>0.140234555625</v>
+        <v>0.062768633103</v>
       </c>
       <c r="S12">
-        <v>1.794203292039919E-06</v>
+        <v>1.46684513438042E-06</v>
       </c>
       <c r="T12">
-        <v>2.679780775238166E-06</v>
+        <v>2.309332207264216E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2855083333333333</v>
+        <v>0.08220233333333334</v>
       </c>
       <c r="H13">
-        <v>0.856525</v>
+        <v>0.246607</v>
       </c>
       <c r="I13">
-        <v>0.0006639503500063851</v>
+        <v>0.0001709601552466038</v>
       </c>
       <c r="J13">
-        <v>0.0007451630433964634</v>
+        <v>0.000202288923777096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N13">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O13">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P13">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q13">
-        <v>1.419123548627778</v>
+        <v>0.19101438399</v>
       </c>
       <c r="R13">
-        <v>12.77211193765</v>
+        <v>1.71912945591</v>
       </c>
       <c r="S13">
-        <v>0.0001634102606358509</v>
+        <v>4.017447175619823E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002440658072980887</v>
+        <v>6.324880477283843E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H14">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I14">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J14">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N14">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O14">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P14">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q14">
-        <v>1880.67853642488</v>
+        <v>1315.787920318908</v>
       </c>
       <c r="R14">
-        <v>7522.71414569952</v>
+        <v>5263.151681275633</v>
       </c>
       <c r="S14">
-        <v>0.2165577268495089</v>
+        <v>0.2767387645778873</v>
       </c>
       <c r="T14">
-        <v>0.1437536180395179</v>
+        <v>0.1936375716409492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H15">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I15">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J15">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P15">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q15">
-        <v>13.78818431536</v>
+        <v>19.71389583618</v>
       </c>
       <c r="R15">
-        <v>82.72910589215999</v>
+        <v>118.28337501708</v>
       </c>
       <c r="S15">
-        <v>0.001587691779793799</v>
+        <v>0.004146260270727621</v>
       </c>
       <c r="T15">
-        <v>0.001580893286497002</v>
+        <v>0.004351785183255789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H16">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I16">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J16">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N16">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O16">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P16">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q16">
-        <v>6.8152109559</v>
+        <v>15.1484065731405</v>
       </c>
       <c r="R16">
-        <v>40.8912657354</v>
+        <v>90.890439438843</v>
       </c>
       <c r="S16">
-        <v>0.0007847628204526619</v>
+        <v>0.003186038764786955</v>
       </c>
       <c r="T16">
-        <v>0.0007814024674910084</v>
+        <v>0.003343966703625507</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.877892</v>
+        <v>178.5463335</v>
       </c>
       <c r="H17">
-        <v>249.755784</v>
+        <v>357.092667</v>
       </c>
       <c r="I17">
-        <v>0.2904038531325748</v>
+        <v>0.3713314167141066</v>
       </c>
       <c r="J17">
-        <v>0.2172835353449225</v>
+        <v>0.2929190627035035</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N17">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O17">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P17">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q17">
-        <v>620.7074769803442</v>
+        <v>414.889900617285</v>
       </c>
       <c r="R17">
-        <v>3724.244861882064</v>
+        <v>2489.33940370371</v>
       </c>
       <c r="S17">
-        <v>0.07147367168281941</v>
+        <v>0.08726035310070476</v>
       </c>
       <c r="T17">
-        <v>0.07116762155141657</v>
+        <v>0.09158573917567303</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H18">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I18">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J18">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N18">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O18">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P18">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q18">
-        <v>485.44588711522</v>
+        <v>5.602197870498667</v>
       </c>
       <c r="R18">
-        <v>2912.67532269132</v>
+        <v>33.613187222992</v>
       </c>
       <c r="S18">
-        <v>0.05589847269802903</v>
+        <v>0.001178263832386388</v>
       </c>
       <c r="T18">
-        <v>0.05565911554018817</v>
+        <v>0.001236668890263717</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H19">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I19">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J19">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>0.33124</v>
       </c>
       <c r="O19">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P19">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q19">
-        <v>3.559043843506666</v>
+        <v>0.08393536949777777</v>
       </c>
       <c r="R19">
-        <v>32.03139459156</v>
+        <v>0.75541832548</v>
       </c>
       <c r="S19">
-        <v>0.0004098193442313094</v>
+        <v>1.76534303898866E-05</v>
       </c>
       <c r="T19">
-        <v>0.0006120967478234575</v>
+        <v>2.779273313353685E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H20">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I20">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J20">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N20">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O20">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P20">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q20">
-        <v>1.759160890225</v>
+        <v>0.06449699813700001</v>
       </c>
       <c r="R20">
-        <v>15.832448012025</v>
+        <v>0.580472983233</v>
       </c>
       <c r="S20">
-        <v>0.0002025651253902643</v>
+        <v>1.356511889780053E-05</v>
       </c>
       <c r="T20">
-        <v>0.0003025466128408272</v>
+        <v>2.135628719884676E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>32.233823</v>
+        <v>0.7601923333333334</v>
       </c>
       <c r="H21">
-        <v>96.701469</v>
+        <v>2.280577</v>
       </c>
       <c r="I21">
-        <v>0.07495983676913294</v>
+        <v>0.00158100864116523</v>
       </c>
       <c r="J21">
-        <v>0.08412873055771723</v>
+        <v>0.001870731434715147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N21">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O21">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P21">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q21">
-        <v>160.2187114734527</v>
+        <v>1.76646652689</v>
       </c>
       <c r="R21">
-        <v>1441.968403261074</v>
+        <v>15.89819874201</v>
       </c>
       <c r="S21">
-        <v>0.01844897960148233</v>
+        <v>0.0003715262594911551</v>
       </c>
       <c r="T21">
-        <v>0.02755497165686478</v>
+        <v>0.0005849135241190459</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H22">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I22">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J22">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.06014</v>
+        <v>7.369448</v>
       </c>
       <c r="N22">
-        <v>30.12028</v>
+        <v>14.738896</v>
       </c>
       <c r="O22">
-        <v>0.7457123055135437</v>
+        <v>0.7452608427984224</v>
       </c>
       <c r="P22">
-        <v>0.6615946201874847</v>
+        <v>0.661061693471796</v>
       </c>
       <c r="Q22">
-        <v>8.639118789786666</v>
+        <v>1.927108195517333</v>
       </c>
       <c r="R22">
-        <v>51.83471273872</v>
+        <v>11.562649173104</v>
       </c>
       <c r="S22">
-        <v>0.0009947834735518125</v>
+        <v>0.0004053126898338838</v>
       </c>
       <c r="T22">
-        <v>0.0009905238125377681</v>
+        <v>0.0004254035306604408</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H23">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I23">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J23">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>0.33124</v>
       </c>
       <c r="O23">
-        <v>0.005467185654279137</v>
+        <v>0.01116592909756377</v>
       </c>
       <c r="P23">
-        <v>0.007275715962497773</v>
+        <v>0.01485661309677453</v>
       </c>
       <c r="Q23">
-        <v>0.0633376517511111</v>
+        <v>0.02887304986222222</v>
       </c>
       <c r="R23">
-        <v>0.57003886576</v>
+        <v>0.25985744876</v>
       </c>
       <c r="S23">
-        <v>7.293249548793534E-06</v>
+        <v>6.072629201923747E-06</v>
       </c>
       <c r="T23">
-        <v>1.089302980135013E-05</v>
+        <v>9.560462703309963E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H24">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I24">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J24">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05457500000000001</v>
+        <v>0.084843</v>
       </c>
       <c r="N24">
-        <v>0.163725</v>
+        <v>0.254529</v>
       </c>
       <c r="O24">
-        <v>0.002702315454796679</v>
+        <v>0.008580040959044227</v>
       </c>
       <c r="P24">
-        <v>0.003596234138268168</v>
+        <v>0.0114160091622658</v>
       </c>
       <c r="Q24">
-        <v>0.03130647576666667</v>
+        <v>0.022186416219</v>
       </c>
       <c r="R24">
-        <v>0.2817582819</v>
+        <v>0.199677745971</v>
       </c>
       <c r="S24">
-        <v>3.604900623041364E-06</v>
+        <v>4.666284984109556E-06</v>
       </c>
       <c r="T24">
-        <v>5.384196667751631E-06</v>
+        <v>7.346380302532247E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5736413333333333</v>
+        <v>0.2614996666666667</v>
       </c>
       <c r="H25">
-        <v>1.720924</v>
+        <v>0.7844990000000001</v>
       </c>
       <c r="I25">
-        <v>0.001334004368972754</v>
+        <v>0.0005438534625164957</v>
       </c>
       <c r="J25">
-        <v>0.00149717634078867</v>
+        <v>0.0006435156277567465</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.970515333333334</v>
+        <v>2.32371</v>
       </c>
       <c r="N25">
-        <v>14.911546</v>
+        <v>6.97113</v>
       </c>
       <c r="O25">
-        <v>0.2461181933773804</v>
+        <v>0.2349931871449696</v>
       </c>
       <c r="P25">
-        <v>0.3275334297117493</v>
+        <v>0.3126656842691638</v>
       </c>
       <c r="Q25">
-        <v>2.851293043167112</v>
+        <v>0.6076493904300001</v>
       </c>
       <c r="R25">
-        <v>25.661637388504</v>
+        <v>5.468844513870001</v>
       </c>
       <c r="S25">
-        <v>0.0003283227452491065</v>
+        <v>0.0001278018584965786</v>
       </c>
       <c r="T25">
-        <v>0.0004903753017817998</v>
+        <v>0.0002012052540904637</v>
       </c>
     </row>
   </sheetData>
